--- a/Final Data/Ohio/1 Ohio county list_copy.xlsx
+++ b/Final Data/Ohio/1 Ohio county list_copy.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosuarez/Desktop/FSDAB/Final Data/Ohio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{647C8F6F-1DEF-5647-BF1B-17B3D29F6980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{647C8F6F-1DEF-5647-BF1B-17B3D29F6980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8647D8D6-5983-484F-B820-D76387699114}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -417,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -426,6 +426,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -729,1267 +732,1276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>195774</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>159900</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>57591</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>55858</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>29314</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>11503</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
       <c r="C8">
-        <v>11332</v>
+        <v>11503</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>11332</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>7811</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>6702</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>6702</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>66</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>67</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>19</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>56</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>72</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>73</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>28</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>17</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>62</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>63</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>83</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>79</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>55</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>74</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>75</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>53</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>70</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>71</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>36</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>37</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>40</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>10</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>40</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>41</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>16</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>17</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>8</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>38</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>39</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>15</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>16</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>80</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>81</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>24</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>25</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <v>86</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>87</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <v>4</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <v>84</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>85</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>68</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>69</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>30</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>31</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>85</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>86</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>61</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>62</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>82</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>83</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>68</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
         <v>44</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>45</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>76</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
         <v>18</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>19</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>59</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>60</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>69</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>70</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <v>22</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>23</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>31</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>32</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <v>42</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>43</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <v>32</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>33</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
         <v>46</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>47</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>49</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>50</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
         <v>7</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>8</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>14</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>15</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <v>29</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>30</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>45</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>46</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <v>75</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>76</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>87</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>88</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
         <v>11</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>12</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>41</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>42</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <v>65</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>66</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>81</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>82</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
-      <sortCondition descending="1" ref="C1:C89"/>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D90">
+      <sortCondition descending="1" ref="C2:C90"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1998,17 +2010,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98849F9F-85CC-F441-9B4D-2C14A0D0881C}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>72</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>149</v>
       </c>
@@ -2073,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>172</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>269</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>457</v>
       </c>
@@ -2124,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>474</v>
       </c>
@@ -2141,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>179</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>489</v>
       </c>
